--- a/reports/ssh/results/cross_std.xlsx
+++ b/reports/ssh/results/cross_std.xlsx
@@ -609,46 +609,46 @@
         <v>0.009527543002782777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01563647543688582</v>
+        <v>0.01299563237639967</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009999999999999997</v>
+        <v>0.01173442490901992</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02158598267833726</v>
+        <v>0.01821742191200142</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03827630166065164</v>
+        <v>0.03615079349758813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03655056667348786</v>
+        <v>0.03382184353702209</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03360643386678296</v>
+        <v>0.03610349534921518</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03507936758683827</v>
+        <v>0.03383943915761642</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0247536130167367</v>
+        <v>0.03137430255653144</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007839147958650367</v>
+        <v>0.008276616778071016</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01141811952899637</v>
+        <v>0.009690218537209491</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01445856767496246</v>
+        <v>0.01576584279548396</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01270361287377831</v>
+        <v>0.01300393457702747</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01922367744580649</v>
+        <v>0.02033900172890688</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0144964861124359</v>
       </c>
       <c r="T2" t="n">
         <v>0.01096065767905028</v>
@@ -666,25 +666,25 @@
         <v>0.02139534472080094</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02352490359477066</v>
+        <v>0.02476495123300994</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.009968263896971578</v>
+        <v>0.01959587074041756</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01429456962545457</v>
+        <v>0.01668179680908934</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01702601167093727</v>
+        <v>0.01683836635692797</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01927510827141757</v>
+        <v>0.02008023019068573</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01819993723458446</v>
+        <v>0.01885754201824973</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.009968263896971578</v>
+        <v>0.01920616735263401</v>
       </c>
     </row>
     <row r="3">
@@ -706,46 +706,46 @@
         <v>0.009505689176580673</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01364068277342274</v>
+        <v>0.01331767549703768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01028025344453754</v>
+        <v>0.01177997969657677</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01493781157317243</v>
+        <v>0.01248504567962807</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03676119584820562</v>
+        <v>0.03524380708982034</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03531661643083526</v>
+        <v>0.03275956460607927</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03106805435639161</v>
+        <v>0.03356004032723764</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03369237522873214</v>
+        <v>0.03267419038089822</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02304190841404154</v>
+        <v>0.02955060409547455</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006244984921162973</v>
+        <v>0.005812315574113282</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01058456221135457</v>
+        <v>0.009278115404987273</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0148687887186821</v>
+        <v>0.01537890061127995</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01150607082078453</v>
+        <v>0.01233158335643063</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02104280623141015</v>
+        <v>0.02122670958800506</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.0142864361125715</v>
       </c>
       <c r="T3" t="n">
         <v>0.00763555292743</v>
@@ -763,25 +763,25 @@
         <v>0.01969686965779702</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02356539519805234</v>
+        <v>0.0250244211356154</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01034482758620688</v>
+        <v>0.01880019379533237</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01379118850999585</v>
+        <v>0.01619185528585677</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01630297340803035</v>
+        <v>0.0160896360288386</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01778195660765701</v>
+        <v>0.01864243925203504</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01790299118000103</v>
+        <v>0.01870313019809722</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01034482758620688</v>
+        <v>0.01838827408457999</v>
       </c>
     </row>
     <row r="4">
@@ -806,43 +806,43 @@
         <v>0.01170573455419553</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006218671481916374</v>
+        <v>0.01170573455419553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02492039932817056</v>
+        <v>0.02382434947284516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05346514892828222</v>
+        <v>0.04916734038492976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05080644943022675</v>
+        <v>0.04753791393868356</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04996949048205395</v>
+        <v>0.05174092387985919</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05177899255980535</v>
+        <v>0.04973732603420263</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04305126119253695</v>
+        <v>0.05154668982896484</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009468535416477611</v>
+        <v>0.01028087425368658</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02031648383876832</v>
+        <v>0.01775438411426362</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02281222596650123</v>
+        <v>0.02569163839276309</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0200145990973072</v>
+        <v>0.02181469851688998</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02106444403101208</v>
+        <v>0.02176880426436753</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.02365805252751088</v>
       </c>
       <c r="T4" t="n">
         <v>0.0149647954277139</v>
@@ -860,25 +860,25 @@
         <v>0.03757548322712833</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03619998603729962</v>
+        <v>0.03624997664907716</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.03600606986987122</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02658482295255481</v>
+        <v>0.03016630931288337</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.03140511053406229</v>
+        <v>0.03098706909852562</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03396134059729242</v>
+        <v>0.0341660925179705</v>
       </c>
       <c r="AD4" t="n">
         <v>0.02993639240305307</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.03516126574177917</v>
       </c>
     </row>
     <row r="5">
@@ -900,46 +900,46 @@
         <v>0.01842682121397782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02608533006201846</v>
+        <v>0.02289104628451919</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01907878402833891</v>
+        <v>0.01975703109725187</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01552659098870172</v>
+        <v>0.01014958373954923</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04266086793277625</v>
+        <v>0.03999314177317016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03961312475402284</v>
+        <v>0.03685978970670101</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03660435619886743</v>
+        <v>0.03768859367226482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03862758441551552</v>
+        <v>0.0365428544086711</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.02470084906322947</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00706039471260794</v>
+        <v>0.006021676254103468</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02074460271170953</v>
+        <v>0.01794914691566147</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01441340589394706</v>
+        <v>0.01207153875901414</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03448671241700683</v>
+        <v>0.03696845502136471</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.01686234093080396</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -957,25 +957,25 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02682453271830761</v>
+        <v>0.03166491223210111</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.01137248140615465</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.01045695783332933</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02242022896106698</v>
+        <v>0.02497999199359358</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01999999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/reports/ssh/results/cross_std.xlsx
+++ b/reports/ssh/results/cross_std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,147 +446,122 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DT_CC</t>
+          <t>DT_GAN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DT_IF</t>
+          <t>DT_borderline</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DT_LOF</t>
+          <t>DT_mix</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>DT_MD</t>
+          <t>DT_smote</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DT_NM</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>LR_GAN</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LR_CC</t>
+          <t>LR_borderline</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LR_IF</t>
+          <t>LR_mix</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LR_LOF</t>
+          <t>LR_smote</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>LR_MD</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>LR_NM</t>
+          <t>RF_GAN</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RF_borderline</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>RF_CC</t>
+          <t>RF_mix</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>RF_IF</t>
+          <t>RF_smote</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>RF_LOF</t>
+          <t>XGB</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>RF_MD</t>
+          <t>XGBRF</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RF_NM</t>
+          <t>XGBRF_GAN</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>XGB</t>
+          <t>XGBRF_borderline</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF</t>
+          <t>XGBRF_mix</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_CC</t>
+          <t>XGBRF_smote</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_IF</t>
+          <t>XGB_GAN</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_LOF</t>
+          <t>XGB_borderline</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_MD</t>
+          <t>XGB_mix</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_NM</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_CC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_IF</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_LOF</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_MD</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_NM</t>
+          <t>XGB_smote</t>
         </is>
       </c>
     </row>
@@ -597,94 +572,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00693976942934456</v>
+        <v>0.01089939024368418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006633249580710799</v>
+        <v>0.02001330406586293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01173442490901992</v>
+        <v>0.01089939024368418</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009527543002782777</v>
+        <v>0.01630048716401453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01299563237639967</v>
+        <v>0.01133232187802503</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01173442490901992</v>
+        <v>0.02271790489451823</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01821742191200142</v>
+        <v>0.02960722724026691</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03615079349758813</v>
+        <v>0.02271790489451823</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03382184353702209</v>
+        <v>0.02828511677443621</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03610349534921518</v>
+        <v>0.02437473398549987</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03383943915761642</v>
+        <v>0.01246718961478854</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03137430255653144</v>
+        <v>0.01139437236214542</v>
       </c>
       <c r="N2" t="n">
-        <v>0.008276616778071016</v>
+        <v>0.01246718961478854</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009690218537209491</v>
+        <v>0.01071838797404728</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01576584279548396</v>
+        <v>0.01364877538537327</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01300393457702747</v>
+        <v>0.0124726564062994</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02033900172890688</v>
+        <v>0.01379315733373218</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0144964861124359</v>
+        <v>0.0213647280284589</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01096065767905028</v>
+        <v>0.01379315733373218</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01248230310469894</v>
+        <v>0.02084420626298339</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01959587074041756</v>
+        <v>0.01612417538573227</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01898360831530054</v>
+        <v>0.01525932470527811</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02139534472080094</v>
+        <v>0.0124726564062994</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02476495123300994</v>
+        <v>0.01912441385444473</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01959587074041756</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.01668179680908934</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.01683836635692797</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.02008023019068573</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.01885754201824973</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.01920616735263401</v>
+        <v>0.01279016181583682</v>
       </c>
     </row>
     <row r="3">
@@ -694,94 +654,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004922353466013077</v>
+        <v>0.007687148832267094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006218671481916374</v>
+        <v>0.01371102442326298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01183524185357641</v>
+        <v>0.007687148832267094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009505689176580673</v>
+        <v>0.01151622980408172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01331767549703768</v>
+        <v>0.00800885374648358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01177997969657677</v>
+        <v>0.01537137670140277</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01248504567962807</v>
+        <v>0.02079051017959265</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03524380708982034</v>
+        <v>0.01537137670140277</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03275956460607927</v>
+        <v>0.01973609871846354</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03356004032723764</v>
+        <v>0.01716702830438881</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03267419038089822</v>
+        <v>0.008745539581379859</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02955060409547455</v>
+        <v>0.007942500700825694</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005812315574113282</v>
+        <v>0.008745539581379859</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009278115404987273</v>
+        <v>0.007472821310969732</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01537890061127995</v>
+        <v>0.009645202363491626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01233158335643063</v>
+        <v>0.008744945919498526</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02122670958800506</v>
+        <v>0.00963741372280604</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0142864361125715</v>
+        <v>0.01442182137621838</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00763555292743</v>
+        <v>0.00963741372280604</v>
       </c>
       <c r="U3" t="n">
-        <v>0.008677609979279768</v>
+        <v>0.01437343844293282</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01880019379533237</v>
+        <v>0.01150564497745978</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01813467279342667</v>
+        <v>0.01084172736572737</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01969686965779702</v>
+        <v>0.008744945919498526</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0250244211356154</v>
+        <v>0.01349499325012951</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01880019379533237</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.01619185528585677</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.0160896360288386</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.01864243925203504</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.01870313019809722</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.01838827408457999</v>
+        <v>0.009051086190560638</v>
       </c>
     </row>
     <row r="4">
@@ -791,94 +736,79 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00523677598477169</v>
+        <v>0.01159771276325781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01170573455419553</v>
+        <v>0.02469067262662829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01170573455419553</v>
+        <v>0.01159771276325781</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.01695963646018071</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01170573455419553</v>
+        <v>0.01159771276325781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01170573455419553</v>
+        <v>0.0291648903503202</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02382434947284516</v>
+        <v>0.02954117704641166</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04916734038492976</v>
+        <v>0.0291648903503202</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04753791393868356</v>
+        <v>0.02888855232641587</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05174092387985919</v>
+        <v>0.02675438548491057</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04973732603420263</v>
+        <v>0.01536750761926551</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05154668982896484</v>
+        <v>0.01533157111427714</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01028087425368658</v>
+        <v>0.01536750761926551</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01775438411426362</v>
+        <v>0.01445821220356192</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02569163839276309</v>
+        <v>0.01576022512320588</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02181469851688998</v>
+        <v>0.01560856689701543</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02176880426436753</v>
+        <v>0.01743080641583566</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02365805252751088</v>
+        <v>0.02755202924301603</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0149647954277139</v>
+        <v>0.01743080641583566</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01699418979629432</v>
+        <v>0.02367606619022312</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03600606986987122</v>
+        <v>0.01706803971452886</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03481234363716018</v>
+        <v>0.01667939184206485</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03757548322712833</v>
+        <v>0.01560856689701543</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03624997664907716</v>
+        <v>0.01926980968997065</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03600606986987122</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.03016630931288337</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.03098706909852562</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.0341660925179705</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.02993639240305307</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.03516126574177917</v>
+        <v>0.01431887824573625</v>
       </c>
     </row>
     <row r="5">
@@ -888,94 +818,79 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.008670322878829111</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.007777777777777782</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.008670322878829111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01489417402050502</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01040154531055604</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.003888888888888891</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02842942621770375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003888888888888891</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02451944481212036</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.02338689088215024</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.008311115988439678</v>
       </c>
-      <c r="C5" t="n">
+      <c r="M5" t="n">
+        <v>0.005443310539518177</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.008311115988439678</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.003888888888888891</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01154155673452159</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.008311115988439678</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.008311115988439678</v>
+      </c>
+      <c r="S5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01987893042897429</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01842682121397782</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02289104628451919</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01975703109725187</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01014958373954923</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.03999314177317016</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.03685978970670101</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.03768859367226482</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0365428544086711</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.02470084906322947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.006021676254103468</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.01794914691566147</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.01207153875901414</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.03696845502136471</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.01686234093080396</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.008311115988439678</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.0134342247659375</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.0180811955449588</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.01652485968637317</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.008311115988439678</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03166491223210111</v>
+        <v>0.01613928336260472</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.01137248140615465</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.01045695783332933</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.02497999199359358</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.01135318835732359</v>
       </c>
     </row>
   </sheetData>

--- a/reports/ssh/results/cross_std.xlsx
+++ b/reports/ssh/results/cross_std.xlsx
@@ -1,46 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\undersampling_data\reports\ssh\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16950"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,50 +420,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN_CC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN_KM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN_NM</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_CC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_KM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_NM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_CC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_KM</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_NM</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_CC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_KM</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_NM</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_CC</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_KM</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_NM</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_CC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_KM</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_NM</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_CC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_KM</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_NM</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_CC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_KM</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_NM</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_CC</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_KM</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_NM</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_CC</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_KM</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_NM</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_CC</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_KM</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_NM</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_CC</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_KM</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_NM</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_CC</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_KM</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_NM</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_CC</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_KM</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_NM</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_CC</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_KM</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_NM</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_CC</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_KM</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_NM</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_CC</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_KM</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_NM</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_CC</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_KM</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_NM</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_CC</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_KM</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_NM</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_CC</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_KM</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_NM</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02221521770750069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03109756799355676</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03257238264228594</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02455641850731387</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02302751625334879</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.009936414796028198</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03023604482653486</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02824241395704231</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01408237250610224</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02260506615940821</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02108191687991665</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.009936414796028198</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03799470391680289</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04416580768672355</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03807110537706712</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03829938474712517</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.03790522987152173</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.02636593125427787</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03898272279625953</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.04438096330675066</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0280976177710397</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.03816774775167716</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.03932253654059114</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.02627059972209149</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.02445959100417608</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01833616791381014</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.03127013353044207</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.02439201511155753</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02132943079116034</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0142589078392809</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.01967111950389986</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.01755295573566994</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.01800598235654888</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.01882634493814216</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0187010578340226</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.01374639401312114</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.02699128424819935</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.02869139605620584</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.02690153893098177</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.02711693012085062</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.02490742252973611</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.02038687842993644</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.03089473173648311</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.02874886777845667</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.01927695200788502</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.02874424040092472</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.02533898060355858</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.01713889111415794</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.02312137763687605</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.02200127178657215</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02633887154888616</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.02354832572290328</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.02121501833894442</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.02086741921936837</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.02858235833923026</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.02110875932400734</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.02002906894312961</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.02080583756144262</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.01987670109998402</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.01725225507687617</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02157033674124612</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02982490925389217</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03045176829270716</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0244426883731058</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02355907341220013</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.009620556303316369</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03133666816318474</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02822836323501888</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01408641575766845</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02222614604318512</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02145072707842748</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.009620556303316369</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0379750929328856</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0454394768102179</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03743265656811177</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.03534549360301673</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04312703103254326</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.02495834607145677</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.03921049284897069</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.04718387084417415</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02702146683112026</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0361298949717395</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.04258116274573075</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0257284804005376</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0256464163990131</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.01815963328516438</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02955485225325187</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02377680218971612</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02159593503728807</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01365725236736748</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.01939237618552532</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.01812756240717833</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.01761188708930024</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.01855828567761254</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.01883817014955509</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.01332886517998631</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.02616828339853834</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0302214176149041</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.02532556103862406</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.02583850709087223</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.02565654703414168</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.01990458483529815</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.02981498487843246</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.02872761674217003</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.01882409637278936</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.02822899287738638</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.02551425479275882</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.01642675794296133</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0233807397522343</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0217175925003672</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02677499624780573</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.02275472510696769</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.02161794939359366</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.02027204488453995</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.02925181675760257</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0212607010138747</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.01954911754131962</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.02037726614561553</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.02014741368057182</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.01655209966410895</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03479370353664363</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04382764160203888</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0549757221394095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03109565727639113</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01966268840196436</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01864296873634932</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03654009834272136</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04012030298114396</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01877292523902411</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.03138095580913995</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.02545977445580094</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01864296873634932</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05586670110400318</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05698255146002395</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.05473477495450949</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.05844904376030213</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01771505374679118</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.04503194078473702</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0567427648480745</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.05249955258897639</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.044984679053663</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.05646221404858799</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.04070464322522015</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.03937955976208793</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.02447306793521934</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02856144014452993</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.04986994423953397</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.03540729403086651</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.02099950396239555</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02620900388896876</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0301449258305415</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0171015654741508</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.02752712405885667</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.02789871903232749</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.02236362994785158</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.02468453647185723</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.04460619543600348</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.02907487574614858</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.04722874019860547</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.04301791210142659</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.01978524421394495</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.03188334857360782</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.04618678404401761</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0380877088036078</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.03164543849393476</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.04218081666511396</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.03211002050692303</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.03152376956561372</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.02945353896094841</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.03260713262031523</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0322182979514667</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.03665570246054244</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.02088639077113239</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.03309217998756832</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.03661953946313434</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.02846085804848619</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.03286425620872564</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.03083553670156541</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.02246953956656285</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.03152376956561372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02486421457972615</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03593821859184947</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02581988897471611</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03606908879728827</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0360704124287175</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0473779682447443</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0422255024310612</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.03193211114571384</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03212864765283469</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0611677452220985</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.06305502171824928</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.05357633443145499</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0254254083327857</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.07283347635378787</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01583245611605056</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06249526370942929</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.07249803637187546</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.02878014723728842</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.03367581868179136</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.06988209316015402</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.02872293411969682</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.04334637223702937</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02486421457972615</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.02479485273644959</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02479485273644959</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.03178516753141313</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0236267268622258</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.03167203901796592</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.01895036462563305</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.02166410241236255</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.02699807091874034</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.008749999999999999</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.03293100953340011</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.04747987512269453</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.01808621328833404</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.01975703109725187</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.04125387187215818</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.01975703109725187</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.03062142836315771</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.04035648440255088</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.03259438751107654</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.03916974721927909</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.03515995196558468</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.02896654559813594</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.03997870526918048</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.02133475743944608</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.03447059938878669</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0178109282932324</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.04179719139288348</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.03367581868179136</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.02231603029961496</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0236267268622258</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.02889444391035911</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.006218671481916374</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/ssh/results/cross_std.xlsx
+++ b/reports/ssh/results/cross_std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:CC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,290 +451,390 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>DT_GAN_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>DT_GAN_NM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>DT_borderline_CC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DT_borderline_KM</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DT_borderline_NM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DT_mix_CC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>DT_mix_KM</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DT_mix_NM</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>DT_smote_CC</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DT_smote_KM</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DT_smote_NM</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LR_GAN_CC</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>LR_GAN_KM</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LR_GAN_NM</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LR_borderline_CC</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>LR_borderline_KM</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>LR_borderline_NM</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LR_mix_CC</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>LR_mix_KM</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LR_mix_NM</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>LR_smote_CC</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>LR_smote_KM</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>LR_smote_NM</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>RF_GAN_CC</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>RF_GAN_KM</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>RF_GAN_NM</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>RF_borderline_CC</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>RF_borderline_KM</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>RF_borderline_NM</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>RF_mix_CC</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>RF_mix_KM</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>RF_mix_NM</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>RF_smote_CC</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>RF_smote_KM</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>RF_smote_NM</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_GAN_CC</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_GAN_KM</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_GAN_NM</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_borderline_CC</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_borderline_KM</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_borderline_NM</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_mix_CC</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_mix_KM</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_mix_NM</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_smote_CC</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_smote_KM</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>XGBRF_smote_NM</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>XGB_GAN_CC</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>XGB_GAN_KM</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>XGB_GAN_NM</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>XGB_borderline_CC</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>XGB_borderline_KM</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>XGB_borderline_NM</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>XGB_mix_CC</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>XGB_mix_KM</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>XGB_mix_NM</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>XGB_smote_CC</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>XGB_smote_KM</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_KM_SWAP</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>XGB_smote_NM</t>
         </is>
@@ -750,181 +850,241 @@
         <v>0.02221521770750069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03109756799355676</v>
+        <v>0.02574906477753246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03257238264228594</v>
+        <v>0.023483189068047</v>
       </c>
       <c r="E2" t="n">
+        <v>0.01300735759488994</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.02455641850731387</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.02302751625334879</v>
-      </c>
       <c r="G2" t="n">
+        <v>0.02054206730293974</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02480674757806393</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.009936414796028198</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.03023604482653486</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.02824241395704231</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>0.03282071846628054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02603398572123064</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.01408237250610224</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>0.02260506615940821</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.02108191687991665</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0.02012831999475059</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.02135478456717086</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.009936414796028198</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>0.03799470391680289</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.04416580768672355</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
+        <v>0.03943667822952593</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0456788520116334</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.03807110537706712</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="V2" t="n">
         <v>0.03829938474712517</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.03790522987152173</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.02636593125427787</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
+        <v>0.0367297977629128</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.03659979396783111</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.02670436114910839</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.03898272279625953</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.04438096330675066</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="AA2" t="n">
+        <v>0.04299004340143003</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.04586144409602452</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.0280976177710397</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AD2" t="n">
         <v>0.03816774775167716</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.03932253654059114</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AE2" t="n">
+        <v>0.04239780446630954</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.04072260216643157</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.02627059972209149</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AH2" t="n">
         <v>0.02445959100417608</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0.01833616791381014</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.03127013353044207</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AI2" t="n">
+        <v>0.0189139601557492</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.01821727525776258</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.02082025881793799</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.02439201511155753</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.02132943079116034</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0142589078392809</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AM2" t="n">
+        <v>0.02274263452495893</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.02218756691922054</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.01036939987145199</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.01967111950389986</v>
       </c>
-      <c r="AG2" t="n">
-        <v>0.01755295573566994</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.01800598235654888</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AQ2" t="n">
+        <v>0.0177708171568189</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.02122358117127838</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.01182676435824991</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0.01882634493814216</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0.0187010578340226</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.01374639401312114</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AU2" t="n">
+        <v>0.02320165012212297</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.01628104352643377</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0144964861124359</v>
+      </c>
+      <c r="AX2" t="n">
         <v>0.02699128424819935</v>
       </c>
-      <c r="AM2" t="n">
-        <v>0.02869139605620584</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AY2" t="n">
+        <v>0.02649155782778556</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02852461598677078</v>
+      </c>
+      <c r="BA2" t="n">
         <v>0.02690153893098177</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="BB2" t="n">
         <v>0.02711693012085062</v>
       </c>
-      <c r="AP2" t="n">
-        <v>0.02490742252973611</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="BC2" t="n">
+        <v>0.02299854967351663</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.02340356854124587</v>
+      </c>
+      <c r="BE2" t="n">
         <v>0.02038687842993644</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="BF2" t="n">
         <v>0.03089473173648311</v>
       </c>
-      <c r="AS2" t="n">
-        <v>0.02874886777845667</v>
-      </c>
-      <c r="AT2" t="n">
+      <c r="BG2" t="n">
+        <v>0.02976809235515478</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.02719744696689265</v>
+      </c>
+      <c r="BI2" t="n">
         <v>0.01927695200788502</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="BJ2" t="n">
         <v>0.02874424040092472</v>
       </c>
-      <c r="AV2" t="n">
-        <v>0.02533898060355858</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="BK2" t="n">
+        <v>0.02640321431151673</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.02495897663187231</v>
+      </c>
+      <c r="BM2" t="n">
         <v>0.01713889111415794</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BN2" t="n">
         <v>0.02312137763687605</v>
       </c>
-      <c r="AY2" t="n">
-        <v>0.02200127178657215</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.02633887154888616</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BO2" t="n">
+        <v>0.02218759557992307</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.02331201642585402</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.02594285412137611</v>
+      </c>
+      <c r="BR2" t="n">
         <v>0.02354832572290328</v>
       </c>
-      <c r="BB2" t="n">
-        <v>0.02121501833894442</v>
-      </c>
-      <c r="BC2" t="n">
+      <c r="BS2" t="n">
+        <v>0.0212738586281826</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.02062389978215892</v>
+      </c>
+      <c r="BU2" t="n">
         <v>0.02086741921936837</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BV2" t="n">
         <v>0.02858235833923026</v>
       </c>
-      <c r="BE2" t="n">
-        <v>0.02110875932400734</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.02002906894312961</v>
-      </c>
-      <c r="BG2" t="n">
+      <c r="BW2" t="n">
+        <v>0.02298495941584195</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.0275089491319603</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.0205398157936279</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>0.02080583756144262</v>
       </c>
-      <c r="BH2" t="n">
-        <v>0.01987670109998402</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.01725225507687617</v>
+      <c r="CA2" t="n">
+        <v>0.02293126659451299</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.01841180506755822</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.01712453281797829</v>
       </c>
     </row>
     <row r="3">
@@ -937,181 +1097,241 @@
         <v>0.02157033674124612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02982490925389217</v>
+        <v>0.02614794643522379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03045176829270716</v>
+        <v>0.02367755042948522</v>
       </c>
       <c r="E3" t="n">
+        <v>0.01302222038843223</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.0244426883731058</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.02355907341220013</v>
-      </c>
       <c r="G3" t="n">
+        <v>0.02000358559413533</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02501690065484349</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.009620556303316369</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.03133666816318474</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.02822836323501888</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0.0332202220812073</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02631084019663868</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.01408641575766845</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>0.02222614604318512</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.02145072707842748</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
+        <v>0.01994459991857226</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02167791239781185</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.009620556303316369</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>0.0379750929328856</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.0454394768102179</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
+        <v>0.03977392103739889</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04549685876341285</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.03743265656811177</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="V3" t="n">
         <v>0.03534549360301673</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.04312703103254326</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.02495834607145677</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0.03281233482904627</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.03261621428626404</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.02533238480433261</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.03921049284897069</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.04718387084417415</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="AA3" t="n">
+        <v>0.04109466639812642</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0458163461676683</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.02702146683112026</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AD3" t="n">
         <v>0.0361298949717395</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.04258116274573075</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AE3" t="n">
+        <v>0.04107402267446374</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.03859149279440297</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0.0257284804005376</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AH3" t="n">
         <v>0.0256464163990131</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0.01815963328516438</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.02955485225325187</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AI3" t="n">
+        <v>0.01951683272825052</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0182388728827314</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.02013064147770214</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.02377680218971612</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0.02159593503728807</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.01365725236736748</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AM3" t="n">
+        <v>0.02253313079582172</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.02170777603608486</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.01003933863594694</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.01939237618552532</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0.01812756240717833</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.01761188708930024</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AQ3" t="n">
+        <v>0.01768240688417474</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.02077063322484691</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.01163815428906527</v>
+      </c>
+      <c r="AT3" t="n">
         <v>0.01855828567761254</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0.01883817014955509</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.01332886517998631</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AU3" t="n">
+        <v>0.02268858789801719</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.01613993861312606</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.01450054137111569</v>
+      </c>
+      <c r="AX3" t="n">
         <v>0.02616828339853834</v>
       </c>
-      <c r="AM3" t="n">
-        <v>0.0302214176149041</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AY3" t="n">
+        <v>0.02502165256980548</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02730883097001372</v>
+      </c>
+      <c r="BA3" t="n">
         <v>0.02532556103862406</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="BB3" t="n">
         <v>0.02583850709087223</v>
       </c>
-      <c r="AP3" t="n">
-        <v>0.02565654703414168</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="BC3" t="n">
+        <v>0.02230465294025336</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.02272925651280513</v>
+      </c>
+      <c r="BE3" t="n">
         <v>0.01990458483529815</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="BF3" t="n">
         <v>0.02981498487843246</v>
       </c>
-      <c r="AS3" t="n">
-        <v>0.02872761674217003</v>
-      </c>
-      <c r="AT3" t="n">
+      <c r="BG3" t="n">
+        <v>0.02924676975003714</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.02604565104890311</v>
+      </c>
+      <c r="BI3" t="n">
         <v>0.01882409637278936</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="BJ3" t="n">
         <v>0.02822899287738638</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.02551425479275882</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BK3" t="n">
+        <v>0.02649815505947035</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.02478644454395858</v>
+      </c>
+      <c r="BM3" t="n">
         <v>0.01642675794296133</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BN3" t="n">
         <v>0.0233807397522343</v>
       </c>
-      <c r="AY3" t="n">
-        <v>0.0217175925003672</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0.02677499624780573</v>
-      </c>
-      <c r="BA3" t="n">
+      <c r="BO3" t="n">
+        <v>0.02230136959613955</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.02331244311569504</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.02615153156904295</v>
+      </c>
+      <c r="BR3" t="n">
         <v>0.02275472510696769</v>
       </c>
-      <c r="BB3" t="n">
-        <v>0.02161794939359366</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BS3" t="n">
+        <v>0.02129786386949751</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.02024435667183302</v>
+      </c>
+      <c r="BU3" t="n">
         <v>0.02027204488453995</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BV3" t="n">
         <v>0.02925181675760257</v>
       </c>
-      <c r="BE3" t="n">
-        <v>0.0212607010138747</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.01954911754131962</v>
-      </c>
-      <c r="BG3" t="n">
+      <c r="BW3" t="n">
+        <v>0.02303435709513029</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.02877741289123004</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.02026818228223634</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>0.02037726614561553</v>
       </c>
-      <c r="BH3" t="n">
-        <v>0.02014741368057182</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.01655209966410895</v>
+      <c r="CA3" t="n">
+        <v>0.0232753514869958</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.01825053090776847</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.01642675794296133</v>
       </c>
     </row>
     <row r="4">
@@ -1124,181 +1344,241 @@
         <v>0.03479370353664363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04382764160203888</v>
+        <v>0.03265919662590769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0549757221394095</v>
+        <v>0.02917126154408752</v>
       </c>
       <c r="E4" t="n">
+        <v>0.02021360173420868</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.03109565727639113</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.01966268840196436</v>
-      </c>
       <c r="G4" t="n">
+        <v>0.03339865742670765</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03362434102122866</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.01864296873634932</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.03654009834272136</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.04012030298114396</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>0.04034287515042415</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03493532082347736</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.01877292523902411</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>0.03138095580913995</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.02545977445580094</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>0.02934427827341378</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.02779847849387434</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.01864296873634932</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>0.05586670110400318</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.05698255146002395</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
+        <v>0.05175780652248245</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.05741960451042716</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.05473477495450949</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="V4" t="n">
         <v>0.05844904376030213</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.01771505374679118</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.04503194078473702</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
+        <v>0.05880243157650419</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0587756384771957</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.04505644279093678</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.0567427648480745</v>
       </c>
-      <c r="U4" t="n">
-        <v>0.05249955258897639</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="AA4" t="n">
+        <v>0.06053610508044367</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06025111833047943</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.044984679053663</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AD4" t="n">
         <v>0.05646221404858799</v>
       </c>
-      <c r="X4" t="n">
-        <v>0.04070464322522015</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AE4" t="n">
+        <v>0.05958308219875328</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.05879519755125683</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.03937955976208793</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AH4" t="n">
         <v>0.02447306793521934</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0.02856144014452993</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.04986994423953397</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AI4" t="n">
+        <v>0.01779720237400832</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.02866684143679457</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03395780095292571</v>
+      </c>
+      <c r="AL4" t="n">
         <v>0.03540729403086651</v>
       </c>
-      <c r="AD4" t="n">
-        <v>0.02099950396239555</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.02620900388896876</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AM4" t="n">
+        <v>0.03329071164938144</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.03470680621831714</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.01945419271485844</v>
+      </c>
+      <c r="AP4" t="n">
         <v>0.0301449258305415</v>
       </c>
-      <c r="AG4" t="n">
-        <v>0.0171015654741508</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.02752712405885667</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AQ4" t="n">
+        <v>0.02585339893041699</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.03290762289439614</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.02021360173420867</v>
+      </c>
+      <c r="AT4" t="n">
         <v>0.02789871903232749</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0.02236362994785158</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.02468453647185723</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AU4" t="n">
+        <v>0.03594910963565097</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.02547233195192785</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.01957743521452716</v>
+      </c>
+      <c r="AX4" t="n">
         <v>0.04460619543600348</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0.02907487574614858</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AY4" t="n">
+        <v>0.0447381559075416</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.04235911553241706</v>
+      </c>
+      <c r="BA4" t="n">
         <v>0.04722874019860547</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="BB4" t="n">
         <v>0.04301791210142659</v>
       </c>
-      <c r="AP4" t="n">
-        <v>0.01978524421394495</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="BC4" t="n">
+        <v>0.03795017017018225</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.03789125913694454</v>
+      </c>
+      <c r="BE4" t="n">
         <v>0.03188334857360782</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BF4" t="n">
         <v>0.04618678404401761</v>
       </c>
-      <c r="AS4" t="n">
-        <v>0.0380877088036078</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="BG4" t="n">
+        <v>0.04369292230403157</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0439569587528074</v>
+      </c>
+      <c r="BI4" t="n">
         <v>0.03164543849393476</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BJ4" t="n">
         <v>0.04218081666511396</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.03211002050692303</v>
-      </c>
-      <c r="AW4" t="n">
+      <c r="BK4" t="n">
+        <v>0.0379773229871903</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.03704565495101567</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.03152376956561372</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="BN4" t="n">
         <v>0.02945353896094841</v>
       </c>
-      <c r="AY4" t="n">
-        <v>0.03260713262031523</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.0322182979514667</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BO4" t="n">
+        <v>0.02798975341757039</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.03097493468918453</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.03360982952073735</v>
+      </c>
+      <c r="BR4" t="n">
         <v>0.03665570246054244</v>
       </c>
-      <c r="BB4" t="n">
-        <v>0.02088639077113239</v>
-      </c>
-      <c r="BC4" t="n">
+      <c r="BS4" t="n">
+        <v>0.03011322467723045</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.03218069455552699</v>
+      </c>
+      <c r="BU4" t="n">
         <v>0.03309217998756832</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BV4" t="n">
         <v>0.03661953946313434</v>
       </c>
-      <c r="BE4" t="n">
-        <v>0.02846085804848619</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.03286425620872564</v>
-      </c>
-      <c r="BG4" t="n">
+      <c r="BW4" t="n">
+        <v>0.0317585507003182</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.03324762118071985</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.03170601573934861</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>0.03083553670156541</v>
       </c>
-      <c r="BH4" t="n">
-        <v>0.02246953956656285</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.03152376956561372</v>
+      <c r="CA4" t="n">
+        <v>0.02964456310911862</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.02756698876673899</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.03126226210789996</v>
       </c>
     </row>
     <row r="5">
@@ -1311,180 +1591,240 @@
         <v>0.02486421457972615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03593821859184947</v>
+        <v>0.03868013414891134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02581988897471611</v>
+        <v>0.03270265343464757</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0159497365878632</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.03606908879728827</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0360704124287175</v>
-      </c>
       <c r="G5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.04016621282592842</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.0473779682447443</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.0422255024310612</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>0.04810468546710277</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03567550026901436</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.01987893042897429</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>0.03193211114571384</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.03212864765283469</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>0.02764469509086086</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.03312672951459792</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
         <v>0.0611677452220985</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.06305502171824928</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
+        <v>0.05612602077765119</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06300180497855244</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.05357633443145499</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="V5" t="n">
         <v>0.0254254083327857</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.07283347635378787</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>0.01583245611605056</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
+        <v>0.01944793619441976</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.01700980109623076</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.06249526370942929</v>
       </c>
-      <c r="U5" t="n">
-        <v>0.07249803637187546</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="AA5" t="n">
+        <v>0.04873644754641483</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0657821003178085</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.02878014723728842</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AD5" t="n">
         <v>0.03367581868179136</v>
       </c>
-      <c r="X5" t="n">
-        <v>0.06988209316015402</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AE5" t="n">
+        <v>0.05216724906490661</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.04488225335994914</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.02872293411969682</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AH5" t="n">
         <v>0.04334637223702937</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0.02486421457972615</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
+        <v>0.0354983372067544</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.02352669140217836</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.02128118626601649</v>
+      </c>
+      <c r="AL5" t="n">
         <v>0.02479485273644959</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.02479485273644959</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.03178516753141313</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AM5" t="n">
+        <v>0.02775997693522897</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AP5" t="n">
         <v>0.0236267268622258</v>
       </c>
-      <c r="AG5" t="n">
-        <v>0.03167203901796592</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.01895036462563305</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AQ5" t="n">
+        <v>0.02425572670067375</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.02303269867673637</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.01137248140615465</v>
+      </c>
+      <c r="AT5" t="n">
         <v>0.02166410241236255</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0.02699807091874034</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.008749999999999999</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AU5" t="n">
+        <v>0.02352669140217836</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.02133475743944608</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.02062916624587625</v>
+      </c>
+      <c r="AX5" t="n">
         <v>0.03293100953340011</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0.04747987512269453</v>
-      </c>
-      <c r="AN5" t="n">
+      <c r="AY5" t="n">
+        <v>0.02144518205409628</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.03021611968616898</v>
+      </c>
+      <c r="BA5" t="n">
         <v>0.01808621328833404</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="BB5" t="n">
         <v>0.01975703109725187</v>
       </c>
-      <c r="AP5" t="n">
-        <v>0.04125387187215818</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="BC5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="BE5" t="n">
         <v>0.01975703109725187</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="BF5" t="n">
         <v>0.03062142836315771</v>
       </c>
-      <c r="AS5" t="n">
-        <v>0.04035648440255088</v>
-      </c>
-      <c r="AT5" t="n">
+      <c r="BG5" t="n">
+        <v>0.04139702334306981</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.02422589724287259</v>
+      </c>
+      <c r="BI5" t="n">
         <v>0.01987893042897429</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BJ5" t="n">
         <v>0.03259438751107654</v>
       </c>
-      <c r="AV5" t="n">
-        <v>0.03916974721927909</v>
-      </c>
-      <c r="AW5" t="n">
+      <c r="BK5" t="n">
+        <v>0.03462347068423704</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.03113420212028351</v>
+      </c>
+      <c r="BM5" t="n">
         <v>0</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BN5" t="n">
         <v>0.03515995196558468</v>
       </c>
-      <c r="AY5" t="n">
-        <v>0.02896654559813594</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0.03997870526918048</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BO5" t="n">
+        <v>0.03305285644909445</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.03236789390052364</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.03705876995470242</v>
+      </c>
+      <c r="BR5" t="n">
         <v>0.02133475743944608</v>
       </c>
-      <c r="BB5" t="n">
-        <v>0.03447059938878669</v>
-      </c>
-      <c r="BC5" t="n">
+      <c r="BS5" t="n">
+        <v>0.02879920306574857</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.01987893042897429</v>
+      </c>
+      <c r="BU5" t="n">
         <v>0.0178109282932324</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BV5" t="n">
         <v>0.04179719139288348</v>
       </c>
-      <c r="BE5" t="n">
-        <v>0.03367581868179136</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0.02231603029961496</v>
-      </c>
-      <c r="BG5" t="n">
+      <c r="BW5" t="n">
+        <v>0.03294450299788688</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.04455838476401245</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.02422589724287259</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>0.0236267268622258</v>
       </c>
-      <c r="BH5" t="n">
-        <v>0.02889444391035911</v>
-      </c>
-      <c r="BI5" t="n">
+      <c r="CA5" t="n">
+        <v>0.02921576225069079</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.02210592397978424</v>
+      </c>
+      <c r="CC5" t="n">
         <v>0.006218671481916374</v>
       </c>
     </row>
